--- a/Documents/TraceabilityMatrix_With_GUI.xlsx
+++ b/Documents/TraceabilityMatrix_With_GUI.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="12810"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="21840" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
     <t>2.2.1</t>
   </si>
@@ -239,8 +239,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +284,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,7 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -420,7 +419,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,14 +594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E69" sqref="A1:E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -616,7 +614,7 @@
     <col min="9986" max="16384" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -633,7 +631,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -644,7 +642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -652,7 +650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -660,7 +658,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -668,7 +666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -676,7 +674,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -684,7 +682,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -692,27 +690,42 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -720,7 +733,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -728,7 +741,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -736,7 +749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -747,7 +760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -755,7 +768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -763,7 +776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -771,7 +784,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -779,7 +792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -787,7 +800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -795,7 +808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -803,7 +816,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -811,7 +824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -819,7 +832,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -827,7 +840,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -835,7 +848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -843,7 +856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -851,7 +864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -859,7 +872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -867,7 +880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -875,7 +888,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -883,7 +896,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -891,7 +904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -899,7 +912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -907,7 +920,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -918,7 +931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -926,7 +939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -937,7 +950,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -945,7 +958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -953,7 +966,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -961,7 +974,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -969,7 +982,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -977,7 +990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -985,7 +998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -993,7 +1006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1001,7 +1014,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1009,7 +1022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1017,7 +1030,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1025,7 +1038,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1033,7 +1046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1041,7 +1054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1049,7 +1062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1057,7 +1070,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1065,7 +1078,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1081,7 +1094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1089,7 +1102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1097,7 +1110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1105,7 +1118,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>3.3</v>
       </c>
@@ -1117,22 +1130,31 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -1140,7 +1162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -1151,7 +1173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -1159,7 +1181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -1170,7 +1192,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -1178,7 +1200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1048576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="1:5">
       <c r="A1048576" s="3"/>
       <c r="B1048576" s="3"/>
       <c r="C1048576" s="3"/>
@@ -1195,12 +1217,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
